--- a/Datasets/vjcortesa_Presurvey_questions overview.xlsx
+++ b/Datasets/vjcortesa_Presurvey_questions overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Scripts_vjcortesa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="11_F25DC773A252ABDACC10482FB9DB7A865ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F487E1-2E64-43F1-9B34-BD9E6AED1ADE}"/>
+  <xr:revisionPtr revIDLastSave="1116" documentId="11_F25DC773A252ABDACC10482FB9DB7A865ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730CE2CA-4249-4F13-892C-91E7417FEBEB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="231">
   <si>
     <t>session_19_250923_EPA_IntroDays_Overasselt</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>RiskPerception_5</t>
+  </si>
+  <si>
+    <t>Q_Role_Faculty_Other</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,8 +1113,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,6 +1262,20 @@
         <v>79</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>218</v>
@@ -1264,7 +1284,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>+dataset_251007!C7</f>
+        <f>+dataset_251007!C8</f>
         <v>3) Heeft u ooit persoonlijk een overstroming meegemaakt, bijvoorbeeld door de kust, een rivier of hevige regenval?</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -1300,7 +1320,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>+dataset_251007!C8</f>
+        <f>+dataset_251007!C9</f>
         <v xml:space="preserve">Overheid (bijv. officiële brieven, aankondigingen enz.) </v>
       </c>
       <c r="D12" s="1" t="str">
@@ -1319,7 +1339,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>+dataset_251007!C9</f>
+        <f>+dataset_251007!C10</f>
         <v xml:space="preserve">Weersvoorspelling (bijv. overstromingswaarschuwingen) </v>
       </c>
       <c r="D13" s="1" t="str">
@@ -1338,7 +1358,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>+dataset_251007!C10</f>
+        <f>+dataset_251007!C11</f>
         <v>Wetenschappelijk (d.w.z. academische rapporten of publicaties)</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -1357,7 +1377,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>+dataset_251007!C11</f>
+        <f>+dataset_251007!C12</f>
         <v xml:space="preserve">Algemene media (bijv. nieuws, tv en radio) </v>
       </c>
       <c r="D15" s="1" t="str">
@@ -1376,7 +1396,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>+dataset_251007!C12</f>
+        <f>+dataset_251007!C13</f>
         <v xml:space="preserve">Sociale netwerken (bijv. vrienden, familie en collega’s) </v>
       </c>
       <c r="D16" s="1" t="str">
@@ -1395,7 +1415,7 @@
         <v>92</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>+dataset_251007!C13</f>
+        <f>+dataset_251007!C14</f>
         <v xml:space="preserve">Ingenieursbureaus (bijv. brochures over overstromingsmaatregelen) </v>
       </c>
       <c r="D17" s="1" t="str">
@@ -1414,7 +1434,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>+dataset_251007!C14</f>
+        <f>+dataset_251007!C15</f>
         <v xml:space="preserve">Verzekeringsmaatschappijen (bijv. bescherming tegen overstromingen) </v>
       </c>
       <c r="D18" s="1" t="str">
@@ -1449,7 +1469,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>+dataset_251007!C15</f>
+        <f>+dataset_251007!C16</f>
         <v>6) Hoe waarschijnlijk acht u het dat er zich binnen 5 tot 10 jaar een overstroming bij u voor zal doen?</v>
       </c>
       <c r="D20" s="7" t="str">
@@ -1468,7 +1488,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>+dataset_251007!C16</f>
+        <f>+dataset_251007!C17</f>
         <v>7) In hoeverre denkt u dat klimaatverandering de kans op overstroming voor u binnen 5 tot 10 jaar vergroot?</v>
       </c>
       <c r="D21" s="7" t="str">
@@ -1487,7 +1507,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>+dataset_251007!C17</f>
+        <f>+dataset_251007!C18</f>
         <v>8) In hoeverre denkt u dat u schade zult oplopen bij een grote overstroming binnen 5 tot 10 jaar?</v>
       </c>
       <c r="D22" s="7" t="str">
@@ -1503,7 +1523,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>+dataset_251007!C18</f>
+        <f>+dataset_251007!C19</f>
         <v>9) Wie beschouwt u als verantwoordelijk voor het bieden of hebben van bescherming tegen overstromingen?</v>
       </c>
       <c r="D23" s="7" t="str">
@@ -1533,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>+dataset_251007!C19</f>
+        <f>+dataset_251007!C20</f>
         <v xml:space="preserve">Gebieden omgeven door relatief grote begroeide zones die kunnen dienen voor waterretentie. </v>
       </c>
       <c r="D25" s="7" t="str">
@@ -1549,7 +1569,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>+dataset_251007!C20</f>
+        <f>+dataset_251007!C21</f>
         <v xml:space="preserve">Gebieden die beschermd zijn met overstromingsmaatregelen zoals dijken. </v>
       </c>
       <c r="D26" s="7" t="str">
@@ -1565,7 +1585,7 @@
         <v>102</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>+dataset_251007!C21</f>
+        <f>+dataset_251007!C22</f>
         <v xml:space="preserve">Gebieden langs een rivier of waterkanaal zonder bescherming. </v>
       </c>
       <c r="D27" s="7" t="str">
@@ -1595,7 +1615,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>+dataset_251007!C23</f>
+        <f>+dataset_251007!C24</f>
         <v xml:space="preserve">Groene tuin met open bestrating </v>
       </c>
       <c r="D29" s="7" t="str">
@@ -1611,7 +1631,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>+dataset_251007!C24</f>
+        <f>+dataset_251007!C25</f>
         <v xml:space="preserve">Regenwaterton voor waterhergebruik </v>
       </c>
       <c r="D30" s="7" t="str">
@@ -1627,7 +1647,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>+dataset_251007!C25</f>
+        <f>+dataset_251007!C26</f>
         <v>Zandzakken</v>
       </c>
       <c r="D31" s="7" t="str">
@@ -1643,7 +1663,7 @@
         <v>107</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>+dataset_251007!C26</f>
+        <f>+dataset_251007!C27</f>
         <v xml:space="preserve">Waterdichte muren en vloeren </v>
       </c>
       <c r="D32" s="7" t="str">
@@ -1659,7 +1679,7 @@
         <v>108</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>+dataset_251007!C27</f>
+        <f>+dataset_251007!C28</f>
         <v xml:space="preserve">Zelf activerende waterkering </v>
       </c>
       <c r="D33" s="7" t="str">
@@ -1675,7 +1695,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>+dataset_251007!C28</f>
+        <f>+dataset_251007!C29</f>
         <v>Overstromingsverzekering</v>
       </c>
       <c r="D34" s="7" t="str">
@@ -1723,9 +1743,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA5D072-F21D-421D-B20F-3E70CE670902}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1897,222 +1919,198 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>+Overview!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <f>+Overview!B9</f>
+        <v>Q_Role_Faculty_Other</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>+Overview!C9</f>
+        <v>Other</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
         <f>+Overview!A10</f>
         <v>RiskPerception_1</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B8" t="str">
         <f>+Overview!B10</f>
         <v>Q_Experience</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D8" s="7">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
         <f>+Overview!A12</f>
         <v>RiskPerception_2_1</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <f>+Overview!B12</f>
         <v>Q_Info_Government</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
         <f>+Overview!A13</f>
         <v>RiskPerception_2_2</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <f>+Overview!B13</f>
         <v>Q_Info_WeatherForecast</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <f>+E$8</f>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <f>+E$9</f>
         <v>6</v>
       </c>
-      <c r="F9" s="10" t="str">
-        <f t="shared" ref="F9:K14" si="0">+F$8</f>
+      <c r="F10" s="10" t="str">
+        <f t="shared" ref="F10:K15" si="0">+F$9</f>
         <v>1 = Nooit</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2 = Eén keer in het afgelopen jaar</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>3 = Eén keer in de afgelopen zes maanden</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>4 = Eén keer per maand</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>5 = Eén keer per week</v>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
         <f>+Overview!A14</f>
         <v>RiskPerception_2_3</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B11" t="str">
         <f>+Overview!B14</f>
         <v>Q_Info_Scientific</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E14" si="1">+E$8</f>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:E15" si="1">+E$9</f>
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1 = Nooit</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2 = Eén keer in het afgelopen jaar</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>3 = Eén keer in de afgelopen zes maanden</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>4 = Eén keer per maand</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>5 = Eén keer per week</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
         <f>+Overview!A15</f>
         <v>RiskPerception_2_4</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>+Overview!B15</f>
         <v>Q_Info_GeneralMedia</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>1 = Nooit</v>
-      </c>
-      <c r="G11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>2 = Eén keer in het afgelopen jaar</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>3 = Eén keer in de afgelopen zes maanden</v>
-      </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>4 = Eén keer per maand</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>5 = Eén keer per week</v>
-      </c>
-      <c r="K11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>6 = Eén keer per dag</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f>+Overview!A16</f>
-        <v>RiskPerception_2_5</v>
-      </c>
-      <c r="B12" t="str">
-        <f>+Overview!B16</f>
-        <v>Q_Info_SocialMedia</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12" s="11">
         <v>18</v>
       </c>
       <c r="E12" s="2">
@@ -2144,19 +2142,19 @@
         <v>6 = Eén keer per dag</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>+Overview!A17</f>
-        <v>RiskPerception_2_6</v>
+        <f>+Overview!A16</f>
+        <v>RiskPerception_2_5</v>
       </c>
       <c r="B13" t="str">
-        <f>+Overview!B17</f>
-        <v>Q_Info_Engineering</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4">
+        <f>+Overview!B16</f>
+        <v>Q_Info_SocialMedia</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11">
         <v>19</v>
       </c>
       <c r="E13" s="2">
@@ -2190,17 +2188,17 @@
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>+Overview!A18</f>
-        <v>RiskPerception_2_7</v>
+        <f>+Overview!A17</f>
+        <v>RiskPerception_2_6</v>
       </c>
       <c r="B14" t="str">
-        <f>+Overview!B18</f>
-        <v>Q_Info_Insurances</v>
+        <f>+Overview!B17</f>
+        <v>Q_Info_Engineering</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4">
+        <v>54</v>
+      </c>
+      <c r="D14" s="11">
         <v>20</v>
       </c>
       <c r="E14" s="2">
@@ -2234,242 +2232,242 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
+        <f>+Overview!A18</f>
+        <v>RiskPerception_2_7</v>
+      </c>
+      <c r="B15" t="str">
+        <f>+Overview!B18</f>
+        <v>Q_Info_Insurances</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="11">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>1 = Nooit</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 = Eén keer in het afgelopen jaar</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 = Eén keer in de afgelopen zes maanden</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>4 = Eén keer per maand</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5 = Eén keer per week</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>6 = Eén keer per dag</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
         <f>+Overview!A20</f>
         <v>RiskPerception_3</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <f>+Overview!B20</f>
         <v>Q_FloodFuture</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="11">
         <v>22</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
+    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
         <f>+Overview!A21</f>
         <v>RiskPerception_4</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <f>+Overview!B21</f>
         <v xml:space="preserve">Q_ClimateChange </v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="11">
         <v>23</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
+    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
         <f>+Overview!A22</f>
         <v>RiskPerception_5</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B18" t="str">
         <f>+Overview!B22</f>
         <v>Q_Threat</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>24</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19">
         <f>+Overview!A23</f>
         <v>0</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B19" t="str">
         <f>+Overview!B23</f>
         <v xml:space="preserve">Q_Responsibility </v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20">
         <f>+Overview!A25</f>
         <v>0</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B20" t="str">
         <f>+Overview!B25</f>
         <v>Q_ConfidenceNatucity</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>26</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21">
         <f>+Overview!A26</f>
         <v>0</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B21" t="str">
         <f>+Overview!B26</f>
         <v>Q_ConfidenceDiketown</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>27</v>
       </c>
-      <c r="E20" s="2">
-        <f>+E$19</f>
+      <c r="E21" s="2">
+        <f>+E$20</f>
         <v>6</v>
       </c>
-      <c r="F20" s="10" t="str">
-        <f t="shared" ref="F20:K21" si="2">+F$19</f>
-        <v>1 = Helemaal geen vertrouwen</v>
-      </c>
-      <c r="G20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>2 = Geen vertrouwen</v>
-      </c>
-      <c r="H20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>3 = Niet duidelijk</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>4 = Enigszins vertrouwen</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>5 = Volledig vertrouwen</v>
-      </c>
-      <c r="K20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>6 = Ik weet het niet</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f>+Overview!A27</f>
-        <v>0</v>
-      </c>
-      <c r="B21" t="str">
-        <f>+Overview!B27</f>
-        <v>Q_ConfidenceUnbesvillage</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2">
-        <f>+E$19</f>
-        <v>6</v>
-      </c>
       <c r="F21" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F21:K22" si="2">+F$20</f>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
       <c r="G21" s="10" t="str">
@@ -2493,313 +2491,357 @@
         <v>6 = Ik weet het niet</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
+        <f>+Overview!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B22" t="str">
+        <f>+Overview!B27</f>
+        <v>Q_ConfidenceUnbesvillage</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2">
+        <f>+E$20</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1 = Helemaal geen vertrouwen</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>2 = Geen vertrouwen</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>3 = Niet duidelijk</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>4 = Enigszins vertrouwen</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>5 = Volledig vertrouwen</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>6 = Ik weet het niet</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23">
         <f>+Overview!A28</f>
         <v>0</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f>+Overview!B28</f>
         <v xml:space="preserve">Q_Confidence_private </v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
         <f>+Overview!A29</f>
         <v>0</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f>+Overview!B29</f>
         <v>Q_ConfidenceGreenGarden</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>29</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23:K28" si="3">+E$22</f>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:K29" si="3">+E$23</f>
         <v>6</v>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G23" s="10" t="str">
+      <c r="G24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I23" s="10" t="str">
+      <c r="I24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K23" s="10" t="str">
+      <c r="K24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="L24" s="10"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
         <f>+Overview!A30</f>
         <v>0</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <f>+Overview!B30</f>
         <v>Q_ConfidenceRainBarrel</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>30</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="F25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="G25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="H25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K24" s="10" t="str">
+      <c r="K25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
         <f>+Overview!A31</f>
         <v>0</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <f>+Overview!B31</f>
         <v>Q_ConfidenceSandbags</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>31</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F25" s="10" t="str">
+      <c r="F26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I25" s="10" t="str">
+      <c r="I26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="K26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
         <f>+Overview!A32</f>
         <v>0</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <f>+Overview!B32</f>
         <v>Q_ConfidenceWaterproof</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>32</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G26" s="10" t="str">
+      <c r="G27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="H27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K26" s="10" t="str">
+      <c r="K27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
         <f>+Overview!A33</f>
         <v>0</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <f>+Overview!B33</f>
         <v>Q_ConfidenceSelf-wall</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>33</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H27" s="10" t="str">
+      <c r="H28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K27" s="10" t="str">
+      <c r="K28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
         <f>+Overview!A34</f>
         <v>0</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <f>+Overview!B34</f>
         <v>Q_ConfidenceInsurance</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>34</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1 = Helemaal geen vertrouwen</v>
       </c>
-      <c r="G28" s="10" t="str">
+      <c r="G29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>2 = Geen vertrouwen</v>
       </c>
-      <c r="H28" s="10" t="str">
+      <c r="H29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3 = Niet duidelijk</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4 = Enigszins vertrouwen</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5 = Volledig vertrouwen</v>
       </c>
-      <c r="K28" s="10" t="str">
+      <c r="K29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>6 = Ik weet het niet</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3865,8 +3907,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
